--- a/docs/milestones.xlsx
+++ b/docs/milestones.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jspenge/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jspenge/source/atlas/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,9 +107,6 @@
     <t>Extend the interpreter built in the second milestone so that it now interprets the new grammar that has been defined in this milestone</t>
   </si>
   <si>
-    <t>Initial Project Setup and build tools (Haskell)</t>
-  </si>
-  <si>
     <t>Not Completed</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Implement an API endpoint that communicates with the Haskell interpreter or invokes the Haskell interpreter and returns the output and formats the MathML</t>
+  </si>
+  <si>
+    <t>Initial Project Setup and build tools</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -695,7 +695,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>3</v>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -731,7 +731,7 @@
         <v>1.3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>3</v>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -758,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -859,7 +859,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -898,10 +898,10 @@
         <v>3.1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>3.2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>3</v>
@@ -932,13 +932,13 @@
         <v>3.3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>3</v>
@@ -949,13 +949,13 @@
         <v>3.4</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>3</v>
@@ -966,16 +966,16 @@
         <v>3.4</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.15">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,7 +1031,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.15">

--- a/docs/milestones.xlsx
+++ b/docs/milestones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740"/>
+    <workbookView minimized="1" xWindow="6400" yWindow="6060" windowWidth="25600" windowHeight="14740"/>
   </bookViews>
   <sheets>
     <sheet name="task list" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Line Item</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Initial Project Setup and build tools</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -644,7 +650,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -704,7 +710,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -722,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -740,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -758,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5"/>
     </row>
